--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_Lineal_Estacionario_ARMA.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.8278266442607078</v>
+        <v>0.917049579578596</v>
       </c>
       <c r="D2">
-        <v>0.4078863294749389</v>
+        <v>0.3690609465635661</v>
       </c>
       <c r="E2">
         <v>0.6089011461021925</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>1.247047755017942</v>
+        <v>1.138316513323244</v>
       </c>
       <c r="D3">
-        <v>0.2125539136386094</v>
+        <v>0.2672331538984094</v>
       </c>
       <c r="E3">
         <v>0.6089011461021925</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>1.183838138637306</v>
+        <v>1.202863719698396</v>
       </c>
       <c r="D4">
-        <v>0.2366447147436261</v>
+        <v>0.2418149928164184</v>
       </c>
       <c r="E4">
         <v>0.6089011461021925</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>3.043793464262223</v>
+        <v>3.00029286156353</v>
       </c>
       <c r="D5">
-        <v>0.00237242975801033</v>
+        <v>0.006590145372918688</v>
       </c>
       <c r="E5">
         <v>0.6089011461021925</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.4489284621805509</v>
+        <v>0.4168925843958579</v>
       </c>
       <c r="D6">
-        <v>0.6535411984365398</v>
+        <v>0.6807967533298473</v>
       </c>
       <c r="E6">
         <v>0.5933376925802917</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.3654975829686403</v>
+        <v>0.3585080726329952</v>
       </c>
       <c r="D7">
-        <v>0.7147860496146365</v>
+        <v>0.7233804878264385</v>
       </c>
       <c r="E7">
         <v>0.5933376925802917</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>2.247829578357246</v>
+        <v>2.232068840476776</v>
       </c>
       <c r="D8">
-        <v>0.02471638221961436</v>
+        <v>0.03611291339940559</v>
       </c>
       <c r="E8">
         <v>0.5933376925802917</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>-0.08515605174071107</v>
+        <v>-0.08885205859202046</v>
       </c>
       <c r="D9">
-        <v>0.9321474818073037</v>
+        <v>0.9300033801534284</v>
       </c>
       <c r="E9">
         <v>0.5851376443398192</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>2.149878599732695</v>
+        <v>1.951234482192545</v>
       </c>
       <c r="D10">
-        <v>0.03170728549958901</v>
+        <v>0.06387801263430659</v>
       </c>
       <c r="E10">
         <v>0.5851376443398192</v>
@@ -661,7 +661,7 @@
         <v>0.5513969469349423</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10">
         <v>200</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>1.960376539844657</v>
+        <v>2.20186174640901</v>
       </c>
       <c r="D11">
-        <v>0.05011694485084872</v>
+        <v>0.03845769984566982</v>
       </c>
       <c r="E11">
         <v>0.5865478411906991</v>
@@ -687,7 +687,7 @@
         <v>0.5513969469349423</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H11">
         <v>200</v>
